--- a/madoka_behold_the_another_world/Assets/DataFile/CharacterSkillData.xlsx
+++ b/madoka_behold_the_another_world/Assets/DataFile/CharacterSkillData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22635" windowHeight="9645" firstSheet="2" activeTab="16"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22635" windowHeight="9645" firstSheet="1" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="なし" sheetId="1" r:id="rId1"/>
@@ -2053,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2783,193 +2783,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="3:13">
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="3:13">
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="3:13">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="3:13">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="3:13">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="3:13">
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="3:13">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="3:13">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="3:13">
-      <c r="C27" s="8"/>
-      <c r="D27" s="2"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="3:13">
-      <c r="C28" s="8"/>
-      <c r="D28" s="2"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="3:13">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="3:13">
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="3:13">
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="3:13">
-      <c r="C32" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B15">
       <formula1>HitType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A15">
       <formula1>SkillType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N15">
       <formula1>ReloadType</formula1>
     </dataValidation>
   </dataValidations>
@@ -2980,10 +2803,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3757,181 +3580,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="3:13">
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="3:13">
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="3:13">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="3:13">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="3:13">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="3:13">
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="3:13">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="3:13">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="3:13">
-      <c r="C27" s="8"/>
-      <c r="D27" s="2"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="3:13">
-      <c r="C28" s="8"/>
-      <c r="D28" s="2"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="3:13">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="3:13">
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="3:13">
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="3:13">
-      <c r="C32" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N16">
       <formula1>ReloadType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A16">
       <formula1>SkillType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16">
       <formula1>HitType</formula1>
     </dataValidation>
   </dataValidations>
@@ -3942,10 +3600,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A18" sqref="A18:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4766,169 +4424,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="C27" s="8"/>
-      <c r="D27" s="2"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="C28" s="8"/>
-      <c r="D28" s="2"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="C32" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17">
       <formula1>HitType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A17">
       <formula1>SkillType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N17">
       <formula1>ReloadType</formula1>
     </dataValidation>
   </dataValidations>
@@ -4939,10 +4444,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="A11" sqref="A11:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5434,259 +4939,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="3:13">
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="3:13">
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="3:13">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="3:13">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="3:13">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="3:13">
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="3:13">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="3:13">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="3:13">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="3:13">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="3:13">
-      <c r="C29" s="8"/>
-      <c r="D29" s="2"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="3:13">
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="3:13">
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="3:13">
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B10">
       <formula1>HitType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A10">
       <formula1>SkillType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N10">
       <formula1>ReloadType</formula1>
     </dataValidation>
   </dataValidations>
@@ -5697,10 +4959,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A17" sqref="A17:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6474,187 +5736,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="3:13">
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="3:13">
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="3:13">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="3:13">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="3:13">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="3:13">
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="3:13">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="3:13">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="3:13">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="3:13">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="3:13">
-      <c r="C29" s="8"/>
-      <c r="D29" s="2"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="3:13">
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="3:13">
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="3:13">
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N16">
       <formula1>ReloadType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A16">
       <formula1>SkillType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16">
       <formula1>HitType</formula1>
     </dataValidation>
   </dataValidations>
@@ -6665,10 +5756,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7395,199 +6486,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="3:13">
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="3:13">
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="3:13">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="3:13">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="3:13">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="3:13">
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="3:13">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="3:13">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="3:13">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="3:13">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="3:13">
-      <c r="C29" s="8"/>
-      <c r="D29" s="2"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="3:13">
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="3:13">
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="3:13">
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B15">
       <formula1>HitType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A15">
       <formula1>SkillType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N15">
       <formula1>ReloadType</formula1>
     </dataValidation>
   </dataValidations>
@@ -7598,10 +6506,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8328,199 +7236,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="3:13">
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="3:13">
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="3:13">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="3:13">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="3:13">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="3:13">
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="3:13">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="3:13">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="3:13">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="3:13">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="3:13">
-      <c r="C29" s="8"/>
-      <c r="D29" s="2"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="3:13">
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="3:13">
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="3:13">
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N15">
       <formula1>ReloadType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A15">
       <formula1>SkillType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B15">
       <formula1>HitType</formula1>
     </dataValidation>
   </dataValidations>
@@ -8531,10 +7256,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9402,163 +8127,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="C29" s="8"/>
-      <c r="D29" s="2"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18">
       <formula1>HitType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A18">
       <formula1>SkillType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N18">
       <formula1>ReloadType</formula1>
     </dataValidation>
   </dataValidations>
@@ -13873,10 +12451,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A19" sqref="A19:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14744,85 +13322,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="C20" s="8"/>
-      <c r="D20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="C21" s="8"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="C25" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A18">
       <formula1>SkillType</formula1>
     </dataValidation>
   </dataValidations>
@@ -14834,19 +13337,19 @@
           <x14:formula1>
             <xm:f>選択肢!$B$2:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>B20</xm:sqref>
+          <xm:sqref>#REF!</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>選択肢!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N24</xm:sqref>
+          <xm:sqref>N2:N18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>選択肢!$B$2:$B$15</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B14 B17:B19 B21:B24</xm:sqref>
+          <xm:sqref>B2:B14 B17:B18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -14862,10 +13365,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15639,121 +14142,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="3:13">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="3:13">
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="3:13">
-      <c r="C21" s="8"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="3:13">
-      <c r="C22" s="8"/>
-      <c r="D22" s="2"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="3:13">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="3:13">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="3:13">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="3:13">
-      <c r="C26" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A16">
       <formula1>SkillType</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N16">
@@ -15769,25 +14161,25 @@
           <x14:formula1>
             <xm:f>選択肢!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>B16:B17</xm:sqref>
+          <xm:sqref>B16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>選択肢!$B$2:$B$15</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B15 B18:B20 B22:B25</xm:sqref>
+          <xm:sqref>B2:B15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>選択肢!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N25</xm:sqref>
+          <xm:sqref>N2:N16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>選択肢!$B$2:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>B21</xm:sqref>
+          <xm:sqref>#REF!</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15797,10 +14189,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A16" sqref="A16:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16528,163 +14920,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="3:13">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="3:13">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="3:13">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="3:13">
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="3:13">
-      <c r="C23" s="8"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="3:13">
-      <c r="C24" s="8"/>
-      <c r="D24" s="2"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="3:13">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="3:13">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="3:13">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="3:13">
-      <c r="C28" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N15">
       <formula1>ReloadType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A15">
       <formula1>SkillType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B15">
       <formula1>HitType</formula1>
     </dataValidation>
   </dataValidations>
@@ -16695,10 +14940,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="A16" sqref="A16:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17425,154 +15670,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="3:13">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="3:13">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="3:13">
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="3:13">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="3:13">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="3:13">
-      <c r="C24" s="8"/>
-      <c r="D24" s="2"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="3:13">
-      <c r="C25" s="8"/>
-      <c r="D25" s="2"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="3:13">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="3:13">
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="3:13">
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="3:13">
-      <c r="C29" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N15">
       <formula1>ReloadType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A15">
       <formula1>SkillType</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B15">
